--- a/Code/DiD ATT.xlsx
+++ b/Code/DiD ATT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott_cunningham/Documents/UT-Causal-Inference/Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69C88C08-6F2B-7A4F-85DF-4BCD518FB4E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884C6F25-540A-BB4B-892C-5DC6FBE079C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7320" yWindow="500" windowWidth="34760" windowHeight="27100" activeTab="5" xr2:uid="{2EE18137-9303-494C-8C32-9DE193BE7F81}"/>
   </bookViews>
@@ -346,9 +346,6 @@
     <t>Donor pool</t>
   </si>
   <si>
-    <t>Weights</t>
-  </si>
-  <si>
     <t>AR</t>
   </si>
   <si>
@@ -632,6 +629,9 @@
   </si>
   <si>
     <t>REMEMBER: Reproduce the fit of the outcome pre-treatment with a synthetic control.</t>
+  </si>
+  <si>
+    <t>empty weight column</t>
   </si>
 </sst>
 </file>
@@ -952,7 +952,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1204,15 +1204,7 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1295,6 +1287,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2548,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -2585,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -2639,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -2659,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -2679,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -2699,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -2876,7 +2883,7 @@
         <v>21</v>
       </c>
       <c r="E33" s="111" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2906,7 +2913,7 @@
         <v>68.333333333333329</v>
       </c>
       <c r="C36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="52" thickBot="1" x14ac:dyDescent="0.25">
@@ -2918,7 +2925,7 @@
         <v>56</v>
       </c>
       <c r="C37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2956,7 +2963,7 @@
         <v>28</v>
       </c>
       <c r="H1" s="51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I1" s="51" t="s">
         <v>100</v>
@@ -3056,14 +3063,14 @@
       <c r="E5" s="5">
         <v>0</v>
       </c>
-      <c r="G5" s="127" t="s">
+      <c r="G5" s="123" t="s">
         <v>32</v>
       </c>
       <c r="H5" s="64">
         <f>AVERAGE(B8,C14,D20,E26)</f>
         <v>7</v>
       </c>
-      <c r="I5" s="136">
+      <c r="I5" s="132">
         <v>7</v>
       </c>
     </row>
@@ -3083,14 +3090,14 @@
       <c r="E6" s="5">
         <v>0</v>
       </c>
-      <c r="G6" s="128" t="s">
+      <c r="G6" s="124" t="s">
         <v>33</v>
       </c>
       <c r="H6" s="59">
         <f t="shared" ref="H6:H10" si="0">AVERAGE(B9,C15,D21,E27)</f>
         <v>7</v>
       </c>
-      <c r="I6" s="137">
+      <c r="I6" s="133">
         <v>7</v>
       </c>
     </row>
@@ -3110,14 +3117,14 @@
       <c r="E7" s="5">
         <v>0</v>
       </c>
-      <c r="G7" s="128" t="s">
+      <c r="G7" s="124" t="s">
         <v>34</v>
       </c>
       <c r="H7" s="59">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="I7" s="137">
+      <c r="I7" s="133">
         <v>7</v>
       </c>
     </row>
@@ -3137,14 +3144,14 @@
       <c r="E8" s="5">
         <v>0</v>
       </c>
-      <c r="G8" s="128" t="s">
+      <c r="G8" s="124" t="s">
         <v>35</v>
       </c>
       <c r="H8" s="59">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="I8" s="137">
+      <c r="I8" s="133">
         <v>7</v>
       </c>
     </row>
@@ -3164,14 +3171,14 @@
       <c r="E9" s="5">
         <v>0</v>
       </c>
-      <c r="G9" s="128" t="s">
+      <c r="G9" s="124" t="s">
         <v>36</v>
       </c>
       <c r="H9" s="59">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="I9" s="137">
+      <c r="I9" s="133">
         <v>7</v>
       </c>
     </row>
@@ -3191,14 +3198,14 @@
       <c r="E10" s="5">
         <v>0</v>
       </c>
-      <c r="G10" s="129" t="s">
+      <c r="G10" s="125" t="s">
         <v>37</v>
       </c>
       <c r="H10" s="61">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="I10" s="138">
+      <c r="I10" s="134">
         <v>7</v>
       </c>
     </row>
@@ -3218,14 +3225,14 @@
       <c r="E11" s="5">
         <v>0</v>
       </c>
-      <c r="G11" s="130" t="s">
+      <c r="G11" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="146">
+      <c r="H11" s="142">
         <f>AVERAGE(B14,C20,D26)</f>
         <v>8</v>
       </c>
-      <c r="I11" s="139">
+      <c r="I11" s="135">
         <v>8</v>
       </c>
     </row>
@@ -3245,14 +3252,14 @@
       <c r="E12" s="5">
         <v>0</v>
       </c>
-      <c r="G12" s="131" t="s">
+      <c r="G12" s="127" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="146">
+      <c r="H12" s="142">
         <f t="shared" ref="H12:H16" si="1">AVERAGE(B15,C21,D27)</f>
         <v>8</v>
       </c>
-      <c r="I12" s="140">
+      <c r="I12" s="136">
         <v>8</v>
       </c>
     </row>
@@ -3272,14 +3279,14 @@
       <c r="E13" s="5">
         <v>0</v>
       </c>
-      <c r="G13" s="131" t="s">
+      <c r="G13" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="146">
+      <c r="H13" s="142">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="I13" s="140">
+      <c r="I13" s="136">
         <v>8</v>
       </c>
     </row>
@@ -3299,14 +3306,14 @@
       <c r="E14" s="5">
         <v>0</v>
       </c>
-      <c r="G14" s="131" t="s">
+      <c r="G14" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="146">
+      <c r="H14" s="142">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="I14" s="140">
+      <c r="I14" s="136">
         <v>8</v>
       </c>
     </row>
@@ -3326,14 +3333,14 @@
       <c r="E15" s="5">
         <v>0</v>
       </c>
-      <c r="G15" s="131" t="s">
+      <c r="G15" s="127" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="146">
+      <c r="H15" s="142">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="I15" s="140">
+      <c r="I15" s="136">
         <v>8</v>
       </c>
     </row>
@@ -3353,14 +3360,14 @@
       <c r="E16" s="5">
         <v>0</v>
       </c>
-      <c r="G16" s="132" t="s">
+      <c r="G16" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="146">
+      <c r="H16" s="142">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="I16" s="141">
+      <c r="I16" s="137">
         <v>8</v>
       </c>
     </row>
@@ -3380,14 +3387,14 @@
       <c r="E17" s="5">
         <v>0</v>
       </c>
-      <c r="G17" s="133" t="s">
+      <c r="G17" s="129" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="147">
+      <c r="H17" s="143">
         <f>AVERAGE(B20,C26)</f>
         <v>9</v>
       </c>
-      <c r="I17" s="142">
+      <c r="I17" s="138">
         <v>9</v>
       </c>
     </row>
@@ -3407,14 +3414,14 @@
       <c r="E18" s="5">
         <v>0</v>
       </c>
-      <c r="G18" s="134" t="s">
+      <c r="G18" s="130" t="s">
         <v>45</v>
       </c>
-      <c r="H18" s="147">
+      <c r="H18" s="143">
         <f t="shared" ref="H18:H22" si="2">AVERAGE(B21,C27)</f>
         <v>9</v>
       </c>
-      <c r="I18" s="143">
+      <c r="I18" s="139">
         <v>9</v>
       </c>
     </row>
@@ -3434,14 +3441,14 @@
       <c r="E19" s="5">
         <v>0</v>
       </c>
-      <c r="G19" s="134" t="s">
+      <c r="G19" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="H19" s="147">
+      <c r="H19" s="143">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="I19" s="143">
+      <c r="I19" s="139">
         <v>9</v>
       </c>
     </row>
@@ -3461,14 +3468,14 @@
       <c r="E20" s="5">
         <v>0</v>
       </c>
-      <c r="G20" s="134" t="s">
+      <c r="G20" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="H20" s="147">
+      <c r="H20" s="143">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="I20" s="143">
+      <c r="I20" s="139">
         <v>9</v>
       </c>
     </row>
@@ -3488,14 +3495,14 @@
       <c r="E21" s="5">
         <v>0</v>
       </c>
-      <c r="G21" s="134" t="s">
+      <c r="G21" s="130" t="s">
         <v>48</v>
       </c>
-      <c r="H21" s="147">
+      <c r="H21" s="143">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="I21" s="143">
+      <c r="I21" s="139">
         <v>9</v>
       </c>
     </row>
@@ -3515,14 +3522,14 @@
       <c r="E22" s="5">
         <v>0</v>
       </c>
-      <c r="G22" s="135" t="s">
+      <c r="G22" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="H22" s="147">
+      <c r="H22" s="143">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="I22" s="144">
+      <c r="I22" s="140">
         <v>9</v>
       </c>
     </row>
@@ -3542,14 +3549,14 @@
       <c r="E23" s="5">
         <v>0</v>
       </c>
-      <c r="G23" s="128" t="s">
+      <c r="G23" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="H23" s="145">
+      <c r="H23" s="141">
         <f>B26</f>
         <v>10</v>
       </c>
-      <c r="I23" s="137">
+      <c r="I23" s="133">
         <v>10</v>
       </c>
     </row>
@@ -3569,14 +3576,14 @@
       <c r="E24" s="5">
         <v>0</v>
       </c>
-      <c r="G24" s="128" t="s">
+      <c r="G24" s="124" t="s">
         <v>51</v>
       </c>
-      <c r="H24" s="145">
+      <c r="H24" s="141">
         <f t="shared" ref="H24:H25" si="3">B27</f>
         <v>10</v>
       </c>
-      <c r="I24" s="137">
+      <c r="I24" s="133">
         <v>10</v>
       </c>
     </row>
@@ -3596,14 +3603,14 @@
       <c r="E25" s="5">
         <v>0</v>
       </c>
-      <c r="G25" s="129" t="s">
+      <c r="G25" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="H25" s="145">
+      <c r="H25" s="141">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="I25" s="138">
+      <c r="I25" s="134">
         <v>10</v>
       </c>
     </row>
@@ -3799,7 +3806,7 @@
         <v>28</v>
       </c>
       <c r="I1" s="51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J1" s="51" t="s">
         <v>53</v>
@@ -3993,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H8" s="58" t="s">
         <v>35</v>
@@ -4024,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H9" s="58" t="s">
         <v>36</v>
@@ -4055,7 +4062,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H10" s="60" t="s">
         <v>37</v>
@@ -4164,7 +4171,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H14" s="68" t="s">
         <v>41</v>
@@ -4195,7 +4202,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H15" s="68" t="s">
         <v>42</v>
@@ -4226,7 +4233,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H16" s="70" t="s">
         <v>43</v>
@@ -4262,7 +4269,7 @@
       </c>
       <c r="J17" s="73"/>
       <c r="L17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -4290,7 +4297,7 @@
       </c>
       <c r="J18" s="75"/>
       <c r="M18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4318,7 +4325,7 @@
       </c>
       <c r="J19" s="75"/>
       <c r="L19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -4349,7 +4356,7 @@
       </c>
       <c r="J20" s="75"/>
       <c r="M20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -4369,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H21" s="74" t="s">
         <v>48</v>
@@ -4380,7 +4387,7 @@
       </c>
       <c r="J21" s="75"/>
       <c r="M21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4411,7 +4418,7 @@
       </c>
       <c r="J22" s="77"/>
       <c r="M22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -4436,7 +4443,7 @@
       <c r="I23" s="59"/>
       <c r="J23" s="59"/>
       <c r="L23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -4464,7 +4471,7 @@
       <c r="I24" s="59"/>
       <c r="J24" s="59"/>
       <c r="L24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4490,70 +4497,70 @@
       <c r="J25" s="61"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="121">
+      <c r="A26" s="117">
         <v>2004</v>
       </c>
-      <c r="B26" s="122">
+      <c r="B26" s="118">
         <v>190</v>
       </c>
-      <c r="C26" s="122">
+      <c r="C26" s="118">
         <v>104</v>
       </c>
-      <c r="D26" s="122">
+      <c r="D26" s="118">
         <v>42</v>
       </c>
-      <c r="E26" s="122">
+      <c r="E26" s="118">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="123">
+      <c r="A27" s="119">
         <v>2005</v>
       </c>
-      <c r="B27" s="124">
+      <c r="B27" s="120">
         <v>200</v>
       </c>
-      <c r="C27" s="124">
+      <c r="C27" s="120">
         <v>112</v>
       </c>
-      <c r="D27" s="124">
+      <c r="D27" s="120">
         <v>48</v>
       </c>
-      <c r="E27" s="124">
+      <c r="E27" s="120">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="123">
+      <c r="A28" s="119">
         <v>2006</v>
       </c>
-      <c r="B28" s="124">
+      <c r="B28" s="120">
         <v>210</v>
       </c>
-      <c r="C28" s="124">
+      <c r="C28" s="120">
         <v>120</v>
       </c>
-      <c r="D28" s="124">
+      <c r="D28" s="120">
         <v>54</v>
       </c>
-      <c r="E28" s="124">
+      <c r="E28" s="120">
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="123">
+      <c r="A29" s="119">
         <v>2007</v>
       </c>
-      <c r="B29" s="124">
+      <c r="B29" s="120">
         <v>220</v>
       </c>
-      <c r="C29" s="124">
+      <c r="C29" s="120">
         <v>128</v>
       </c>
-      <c r="D29" s="124">
+      <c r="D29" s="120">
         <v>60</v>
       </c>
-      <c r="E29" s="124">
+      <c r="E29" s="120">
         <v>16</v>
       </c>
       <c r="H29" t="s">
@@ -4561,36 +4568,36 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="123">
+      <c r="A30" s="119">
         <v>2008</v>
       </c>
-      <c r="B30" s="124">
+      <c r="B30" s="120">
         <v>230</v>
       </c>
-      <c r="C30" s="124">
+      <c r="C30" s="120">
         <v>136</v>
       </c>
-      <c r="D30" s="124">
+      <c r="D30" s="120">
         <v>66</v>
       </c>
-      <c r="E30" s="124">
+      <c r="E30" s="120">
         <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="125">
+      <c r="A31" s="121">
         <v>2009</v>
       </c>
-      <c r="B31" s="126">
+      <c r="B31" s="122">
         <v>240</v>
       </c>
-      <c r="C31" s="126">
+      <c r="C31" s="122">
         <v>144</v>
       </c>
-      <c r="D31" s="126">
+      <c r="D31" s="122">
         <v>72</v>
       </c>
-      <c r="E31" s="126">
+      <c r="E31" s="122">
         <v>24</v>
       </c>
     </row>
@@ -4623,32 +4630,32 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G41" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -4717,7 +4724,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -4737,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -4757,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -4777,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4797,7 +4804,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -4817,7 +4824,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -4837,7 +4844,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -4857,7 +4864,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -4877,7 +4884,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -4897,7 +4904,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4917,7 +4924,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -4937,7 +4944,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -4957,7 +4964,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -4977,7 +4984,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -4997,7 +5004,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -5017,7 +5024,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5037,7 +5044,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -5057,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -5077,7 +5084,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -5097,7 +5104,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -5117,7 +5124,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -5137,27 +5144,27 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="71">
         <v>2003</v>
       </c>
-      <c r="B25" s="118">
+      <c r="B25" s="114">
         <v>179.98099999999999</v>
       </c>
-      <c r="C25" s="119">
+      <c r="C25" s="115">
         <v>96</v>
       </c>
       <c r="D25" s="18">
         <v>36</v>
       </c>
-      <c r="E25" s="120">
+      <c r="E25" s="116">
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -5272,273 +5279,273 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:F29"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" style="116" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="116" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="116"/>
+    <col min="3" max="3" width="19.33203125" style="113" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="113" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="113"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="113" t="s">
+    <row r="1" spans="1:5" s="149" customFormat="1" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="145" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="114" t="s">
-        <v>102</v>
-      </c>
-      <c r="C1" s="117" t="s">
+      <c r="B1" s="146" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" s="147" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="148" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="115" t="s">
-        <v>121</v>
-      </c>
-      <c r="E1" s="117" t="s">
-        <v>123</v>
+      <c r="E1" s="147" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="116">
-        <v>0</v>
-      </c>
-      <c r="D2" s="116">
+        <v>107</v>
+      </c>
+      <c r="C2" s="113">
+        <v>0</v>
+      </c>
+      <c r="D2" s="113">
         <v>0.75</v>
       </c>
-      <c r="E2" s="116" t="s">
-        <v>124</v>
+      <c r="E2" s="113" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" s="116">
+        <v>108</v>
+      </c>
+      <c r="C3" s="113">
         <v>0.1</v>
       </c>
-      <c r="D3" s="116">
+      <c r="D3" s="113">
         <v>0.1</v>
       </c>
-      <c r="E3" s="116" t="s">
-        <v>125</v>
+      <c r="E3" s="113" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="116">
+        <v>109</v>
+      </c>
+      <c r="C4" s="113">
         <v>0.6</v>
       </c>
-      <c r="D4" s="116">
-        <v>0</v>
-      </c>
-      <c r="E4" s="116" t="s">
-        <v>126</v>
+      <c r="D4" s="113">
+        <v>0</v>
+      </c>
+      <c r="E4" s="113" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" s="116">
-        <v>0</v>
-      </c>
-      <c r="D5" s="116">
-        <v>0</v>
-      </c>
-      <c r="E5" s="116" t="s">
-        <v>127</v>
+        <v>110</v>
+      </c>
+      <c r="C5" s="113">
+        <v>0</v>
+      </c>
+      <c r="D5" s="113">
+        <v>0</v>
+      </c>
+      <c r="E5" s="113" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6" s="116">
-        <v>0</v>
-      </c>
-      <c r="D6" s="116">
-        <v>0</v>
-      </c>
-      <c r="E6" s="116" t="s">
-        <v>128</v>
+        <v>111</v>
+      </c>
+      <c r="C6" s="113">
+        <v>0</v>
+      </c>
+      <c r="D6" s="113">
+        <v>0</v>
+      </c>
+      <c r="E6" s="113" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" t="s">
         <v>114</v>
       </c>
-      <c r="B8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="116">
+      <c r="C8" s="113">
         <v>0.05</v>
       </c>
-      <c r="D8" s="116">
+      <c r="D8" s="113">
         <v>0.15</v>
       </c>
-      <c r="E8" s="116" t="s">
-        <v>129</v>
+      <c r="E8" s="113" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" s="116">
+        <v>118</v>
+      </c>
+      <c r="C9" s="113">
         <v>1</v>
       </c>
-      <c r="D9" s="116">
+      <c r="D9" s="113">
         <v>1</v>
       </c>
-      <c r="E9" s="116">
+      <c r="E9" s="113">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" s="144" t="s">
         <v>189</v>
       </c>
-      <c r="C16" s="148" t="s">
-        <v>190</v>
-      </c>
-      <c r="D16" s="148" t="s">
-        <v>193</v>
+      <c r="D16" s="144" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B17">
         <v>0.5</v>
       </c>
-      <c r="C17" s="116">
+      <c r="C17" s="113">
         <v>0.75</v>
       </c>
-      <c r="D17" s="116">
+      <c r="D17" s="113">
         <v>0.25</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B18">
         <v>0.25</v>
       </c>
-      <c r="C18" s="116">
+      <c r="C18" s="113">
         <v>0.5</v>
       </c>
-      <c r="D18" s="116">
+      <c r="D18" s="113">
         <v>0.25</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B19">
         <v>0.1</v>
       </c>
-      <c r="C19" s="116">
+      <c r="C19" s="113">
         <v>0.5</v>
       </c>
-      <c r="D19" s="116">
+      <c r="D19" s="113">
         <v>0.25</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B20">
         <v>0.15</v>
       </c>
-      <c r="C20" s="116">
+      <c r="C20" s="113">
         <v>0.15</v>
       </c>
-      <c r="D20" s="116">
+      <c r="D20" s="113">
         <v>0.25</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
